--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>This is a Header Line</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>new</t>
@@ -365,18 +368,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -386,16 +389,22 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>44497.73528935185</v>
       </c>
     </row>
   </sheetData>
@@ -405,13 +414,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:C4"/>
+  <dimension ref="A4:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -420,6 +429,9 @@
       </c>
       <c r="C4" t="s">
         <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -429,13 +441,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:C4"/>
+  <dimension ref="A4:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -444,6 +456,9 @@
       </c>
       <c r="C4" t="s">
         <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
